--- a/0_필요한자료/자격증외_진위조회방식_정리.xlsx
+++ b/0_필요한자료/자격증외_진위조회방식_정리.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr_auto_valid_check\0_필요한자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A68C61A-39AA-45AB-890A-FB268942D79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA2000A-FB24-44B1-B291-F29B884107BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>연번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +83,17 @@
   </si>
   <si>
     <t>인증번호가 17외 다른거로 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 정부24, 건보, 국민연금 등 자격증 외 우리가 공공사이트에서 진위조회해야하는 목록 및 방법
+2. 일단 우리가 진위조회하는 모든 항목들을 나열, 그리고 어떤 사이트에서 진위조회하는지 아주 세세하게
+ex) '등본'의 경우 정부24에서 진위조회를 하더라도 depth가 나뉨. 직접 발급받은사람들은 주민등록 등초본 발급 진위확인에서 확인하고, 인터넷으로 발급받은 사람들은 인터넷 발급문서 진위확인에서함
+ex) 건보자격득실확인서도 정부24 혹은 건보에서 함. 그리고 각 자격번호에 특징이 있음. G로시작, 4자리로 시작 등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,8 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -397,74 +422,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A6" sqref="A6:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="85.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G8" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
